--- a/data/trans_dic/P19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,07%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>21,48; 30,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>18,91; 27,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>28,2; 38,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>38,14; 54,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>24,54; 33,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>21,54; 31,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>28,78; 38,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>34,59; 48,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>24,19; 30,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>21,7; 28,06</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>29,88; 37,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>38,3; 49,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>34,9; 43,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>31,97; 40,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>36,25; 44,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>49,12; 62,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>34,0; 42,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>32,1; 40,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>34,12; 42,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>46,23; 58,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>35,86; 41,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>33,02; 39,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>36,33; 42,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>49,57; 58,18</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,47%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,17%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>31,94; 40,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>34,72; 43,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>38,16; 46,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>51,87; 60,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>30,12; 37,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>35,78; 43,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>40,75; 48,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>53,94; 60,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>32,04; 38,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>36,44; 41,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>40,57; 46,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>54,01; 60,09</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,9%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,98%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,45%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>26,37; 35,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>29,74; 38,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>33,37; 42,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>36,35; 52,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>27,87; 36,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>34,32; 43,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>39,44; 48,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>50,07; 56,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>28,24; 34,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>33,45; 39,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>37,77; 43,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>44,03; 53,39</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,85%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,71%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,87%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,06%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>14,85; 24,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>19,41; 28,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>23,64; 33,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>42,26; 50,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>20,91; 30,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>24,33; 34,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>29,66; 39,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>48,62; 54,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>18,88; 25,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>23,01; 29,66</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>27,94; 35,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>46,56; 51,67</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,58%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>5,28; 11,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>11,05; 17,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>17,09; 25,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>30,65; 37,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>9,18; 15,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>11,96; 17,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>20,99; 29,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>35,5; 60,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>8,25; 12,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>12,39; 17,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>20,5; 26,33</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>34,7; 53,14</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,84%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,07%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,06%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,56%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>26,88; 30,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,83; 31,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>32,97; 36,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,25; 49,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,48; 30,88</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,4; 32,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>35,27; 39,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>47,89; 55,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>27,61; 30,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>29,34; 31,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>34,79; 37,42</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>46,85; 51,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>42,05%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>38,14; 54,64</t>
+          <t>35,37; 53,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,59; 48,15</t>
+          <t>31,74; 45,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,3; 49,36</t>
+          <t>35,94; 47,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>56,01%</t>
+          <t>55,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,19%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>50,46%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,12; 62,0</t>
+          <t>48,69; 61,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>46,23; 58,28</t>
+          <t>28,53; 55,92</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,57; 58,18</t>
+          <t>38,1; 55,99</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>56,78%</t>
+          <t>56,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>56,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>56,57%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,87; 60,98</t>
+          <t>51,26; 60,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,94; 60,8</t>
+          <t>53,34; 60,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>54,01; 60,09</t>
+          <t>53,36; 59,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>35,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,93%</t>
+          <t>51,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,45%</t>
+          <t>43,0%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,35; 52,32</t>
+          <t>16,67; 51,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,07; 56,95</t>
+          <t>43,64; 55,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>44,03; 53,39</t>
+          <t>26,82; 52,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>45,66%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>48,46%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>42,26; 50,57</t>
+          <t>41,66; 49,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,62; 54,89</t>
+          <t>48,04; 54,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>46,56; 51,67</t>
+          <t>45,96; 51,03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>33,95%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>62,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,16%</t>
+          <t>13,95%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>23,23%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>53,94%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 11,17</t>
+          <t>6,23; 14,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 17,87</t>
+          <t>9,31; 18,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>17,09; 25,11</t>
+          <t>16,84; 27,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,65; 37,08</t>
+          <t>35,15; 43,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,18; 15,24</t>
+          <t>13,28; 22,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,96; 17,75</t>
+          <t>14,02; 23,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,99; 29,03</t>
+          <t>23,69; 35,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>35,5; 60,77</t>
+          <t>42,24; 86,1</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,42</t>
+          <t>11,24; 17,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,39; 17,05</t>
+          <t>13,06; 19,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>20,5; 26,33</t>
+          <t>22,39; 30,11</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,7; 53,14</t>
+          <t>40,69; 76,14</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,67%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>46,84%</t>
+          <t>25,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>29,1%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>37,19%</t>
+          <t>19,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50,07%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>19,37%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>48,56%</t>
+          <t>27,49%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>1,84; 10,04</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>9,9; 20,54</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 26,1</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 29,77</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 9,4</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 16,05</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,25; 25,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>25,5; 32,2</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,77; 8,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,85; 15,97</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>15,52; 23,67</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>25,07; 30,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28,62%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>29,67%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>34,85%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>43,55%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29,1%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31,23%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28,87%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>30,48%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36,06%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>46,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>26,88; 30,5</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>27,83; 31,45</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>32,97; 36,78</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>44,25; 49,01</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>33,48; 47,75</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>27,48; 30,88</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>29,4; 32,92</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>35,27; 39,0</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>47,89; 55,32</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>45,72; 59,35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>27,61; 30,05</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>29,34; 31,73</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>34,79; 37,42</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>46,85; 51,51</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>41,74; 51,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P19C02-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,48; 30,91</t>
+          <t>21,29; 30,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,91; 27,68</t>
+          <t>19,0; 27,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,2; 38,61</t>
+          <t>28,6; 38,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,37; 53,09</t>
+          <t>36,7; 54,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,54; 33,95</t>
+          <t>24,5; 33,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,54; 31,0</t>
+          <t>22,43; 31,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,78; 38,4</t>
+          <t>29,15; 38,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 45,32</t>
+          <t>31,68; 45,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,19; 30,64</t>
+          <t>24,07; 30,62</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,7; 28,06</t>
+          <t>21,87; 28,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 37,07</t>
+          <t>30,32; 37,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,94; 47,58</t>
+          <t>36,41; 48,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,9; 43,22</t>
+          <t>35,1; 43,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,97; 40,27</t>
+          <t>32,28; 40,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,25; 44,81</t>
+          <t>36,36; 45,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,69; 61,58</t>
+          <t>48,63; 61,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,0; 42,48</t>
+          <t>34,43; 42,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,1; 40,5</t>
+          <t>31,75; 39,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>34,12; 42,37</t>
+          <t>34,15; 42,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,53; 55,92</t>
+          <t>30,84; 55,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,86; 41,57</t>
+          <t>35,59; 41,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>33,02; 39,06</t>
+          <t>33,41; 39,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,33; 42,34</t>
+          <t>36,29; 42,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,1; 55,99</t>
+          <t>39,65; 56,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,94; 40,4</t>
+          <t>31,87; 40,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,72; 43,39</t>
+          <t>34,66; 42,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>38,16; 46,81</t>
+          <t>38,09; 46,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,26; 60,3</t>
+          <t>51,81; 60,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,12; 37,61</t>
+          <t>30,39; 38,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,78; 43,48</t>
+          <t>35,18; 43,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>40,75; 48,59</t>
+          <t>40,18; 48,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,34; 60,24</t>
+          <t>53,37; 60,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>32,04; 38,11</t>
+          <t>31,91; 37,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,44; 41,79</t>
+          <t>36,4; 42,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,57; 46,65</t>
+          <t>40,46; 46,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>53,36; 59,44</t>
+          <t>53,56; 59,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,37; 35,91</t>
+          <t>26,36; 35,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,74; 38,34</t>
+          <t>29,67; 38,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,37; 42,03</t>
+          <t>32,81; 41,76</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 51,43</t>
+          <t>15,61; 51,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,87; 36,64</t>
+          <t>27,55; 36,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,32; 43,11</t>
+          <t>34,34; 43,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,44; 48,17</t>
+          <t>39,5; 48,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,64; 55,59</t>
+          <t>42,46; 55,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,24; 34,98</t>
+          <t>28,74; 34,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,45; 39,68</t>
+          <t>33,58; 39,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,77; 43,75</t>
+          <t>37,79; 43,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,82; 52,17</t>
+          <t>26,07; 52,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 24,37</t>
+          <t>15,16; 24,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,41; 28,47</t>
+          <t>19,1; 28,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,64; 33,78</t>
+          <t>23,43; 33,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,66; 49,97</t>
+          <t>41,7; 49,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,91; 30,26</t>
+          <t>20,46; 30,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,33; 34,0</t>
+          <t>23,65; 33,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,66; 39,48</t>
+          <t>30,18; 40,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,04; 54,35</t>
+          <t>47,84; 54,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,71</t>
+          <t>19,03; 25,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,01; 29,66</t>
+          <t>23,06; 29,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,94; 35,22</t>
+          <t>28,0; 35,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>45,96; 51,03</t>
+          <t>46,09; 51,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 14,51</t>
+          <t>6,53; 14,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,31; 18,51</t>
+          <t>9,17; 18,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,84; 27,54</t>
+          <t>16,01; 27,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,15; 43,63</t>
+          <t>35,0; 43,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,8</t>
+          <t>13,55; 22,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,02; 23,0</t>
+          <t>14,07; 23,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>23,69; 35,13</t>
+          <t>24,3; 35,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,24; 86,1</t>
+          <t>42,44; 85,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 17,47</t>
+          <t>10,87; 17,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,06; 19,24</t>
+          <t>12,93; 19,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,39; 30,11</t>
+          <t>22,23; 30,02</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,69; 76,14</t>
+          <t>40,54; 76,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,04</t>
+          <t>2,07; 9,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,9; 20,54</t>
+          <t>9,65; 21,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,96; 26,1</t>
+          <t>13,95; 26,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,65; 29,77</t>
+          <t>21,33; 29,98</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,27; 9,4</t>
+          <t>2,24; 9,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,54; 16,05</t>
+          <t>8,32; 16,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>14,25; 25,44</t>
+          <t>14,52; 26,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,5; 32,2</t>
+          <t>25,82; 32,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,77; 8,06</t>
+          <t>2,9; 7,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,85; 15,97</t>
+          <t>9,84; 16,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 23,67</t>
+          <t>15,47; 23,87</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,07; 30,02</t>
+          <t>24,88; 30,14</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,88; 30,5</t>
+          <t>26,9; 30,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>27,83; 31,45</t>
+          <t>27,84; 31,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,97; 36,78</t>
+          <t>33,01; 36,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,48; 47,75</t>
+          <t>33,83; 47,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,48; 30,88</t>
+          <t>27,54; 30,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,4; 32,92</t>
+          <t>29,73; 33,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>35,27; 39,0</t>
+          <t>35,21; 39,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>45,72; 59,35</t>
+          <t>46,02; 59,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,61; 30,05</t>
+          <t>27,57; 30,16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,34; 31,73</t>
+          <t>29,42; 31,81</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>34,79; 37,42</t>
+          <t>34,7; 37,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>41,74; 51,02</t>
+          <t>41,91; 50,97</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una limpieza de boca</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>91793</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>88778</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>118032</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>171977</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>108239</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>97895</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>118591</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>116932</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>200032</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>186673</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>236623</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>288909</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>76512; 110456</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>72028; 105197</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>100924; 137421</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>140712; 209030</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>92194; 125175</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83227; 116976</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>102583; 136936</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>96157; 138662</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>177096; 225221</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>164054; 212984</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>213673; 264872</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>250116; 330831</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>224920</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>216043</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>199818</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>222667</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>208307</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>202150</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>189037</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>232506</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>433228</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>418193</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>388855</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>455173</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>202110; 249038</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>192819; 239322</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>179262; 223793</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>195673; 246561</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>188260; 232609</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>177777; 223680</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>169617; 210616</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>154082; 277863</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>399485; 465827</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>386543; 454014</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>359243; 419134</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>357674; 507973</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>180716</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>227583</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>236597</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>294726</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>205570</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>260823</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>254978</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>302627</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>386286</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>488407</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>491575</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>597354</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>160286; 205248</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>203352; 251657</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>212508; 259549</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>271483; 317915</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>183444; 230795</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>232335; 284568</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>230271; 276936</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>283846; 321613</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>353118; 419355</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>453861; 524297</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>457602; 525192</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>565502; 627649</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>125081</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>184452</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>191185</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>309573</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>141391</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>219221</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>239762</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>362261</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>266472</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>403673</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>430947</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>671833</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>106673; 143905</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>161059; 209215</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>168118; 213959</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>134581; 443711</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>120708; 159972</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>193444; 243048</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>215254; 263574</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>297472; 390973</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>242228; 293334</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>371469; 438196</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>399551; 464163</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>407307; 813829</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>810</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>52785</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>84959</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>104424</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>249555</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>79899</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>112721</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>137419</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>274325</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>132684</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>197681</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>241844</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>523881</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41286; 66759</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>68629; 101784</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>86908; 123963</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>227909; 271211</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65295; 95961</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>92414; 131809</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>119457; 159277</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>255708; 290145</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>112548; 151791</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>172918; 222930</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>214751; 269191</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>498272; 551692</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>21022</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>35192</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>50117</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>141190</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>42993</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>54607</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>82135</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>376215</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>64015</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>89799</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>132252</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>517405</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13890; 30797</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>23974; 48009</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>36836; 62661</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>125764; 156187</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>33336; 55976</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>42303; 69409</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>67300; 99398</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>254605; 514749</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>49847; 79375</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>72651; 109123</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>112738; 152246</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>388894; 729934</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6124</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>26854</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>28277</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>70926</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10487</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35718</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>44350</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>117344</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>16611</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>62573</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>72627</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>188270</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2618; 12428</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>17854; 39970</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>20509; 38436</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>58930; 82807</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4655; 19841</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>25157; 48786</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>33090; 60271</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>105510; 131243</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>9729; 26132</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>47938; 80954</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>58007; 89500</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>170393; 206437</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>814</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>913</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2518</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1727</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1906</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>702443</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>863862</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>928451</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1460614</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>796886</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>983135</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1066273</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1782210</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1499329</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1846997</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1994724</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3242824</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>660275; 751819</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>810594; 914182</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>879600; 976764</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1134610; 1595896</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>754103; 843476</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>935900; 1040413</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1009448; 1119982</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1646831; 2130632</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1431757; 1566168</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1782601; 1927511</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1919510; 2064428</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2905594; 3533389</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>